--- a/PdfReader/UploadedExcel/InvoiceExcel.xlsx
+++ b/PdfReader/UploadedExcel/InvoiceExcel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Database Office\Clients\CSIL\STPI\2025-26\1. MPR\9. December 25\3. Mumbai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131D7C02-17EC-4372-AD90-1CCB16480611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1664D8BC-A237-4C44-8CA1-A09B976E2B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2D0CE261-EB73-446A-B6BF-ABD695EF2730}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{10DDED8E-D1E1-4CCF-9947-EFE397FDFC85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="180">
   <si>
     <t>Legal entity</t>
   </si>
@@ -72,13 +72,13 @@
     <t>HSN</t>
   </si>
   <si>
-    <t>Citigroup Global Markets India Private L</t>
-  </si>
-  <si>
-    <t>IBD CGM India</t>
-  </si>
-  <si>
-    <t>19075</t>
+    <t>CITIBANK N.A.</t>
+  </si>
+  <si>
+    <t>CSIPL GCB Risk Appetite Mumbai CSC</t>
+  </si>
+  <si>
+    <t>11273</t>
   </si>
   <si>
     <t>Nov 25</t>
@@ -87,97 +87,484 @@
     <t>16-Dec-25</t>
   </si>
   <si>
-    <t>CS25MANMU12D0626</t>
-  </si>
-  <si>
-    <t>Domestic</t>
+    <t>CS25MANMU12E0520</t>
+  </si>
+  <si>
+    <t>Export</t>
   </si>
   <si>
     <t>Mumbai</t>
   </si>
   <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>ICSA-00281-2017</t>
-  </si>
-  <si>
-    <t>Citigroup Global Markets India Private LimitedFirst International Financial Centre (FIFC)9th Floor, C54 &amp; 55, G-BlockBandra Kurla ComplexBandra EastMumbai 400 051India</t>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>ICSA-00192-2016</t>
+  </si>
+  <si>
+    <t>701 East 60th St North Sioux Falls, SD 57104 United States</t>
   </si>
   <si>
     <t>998599</t>
   </si>
   <si>
-    <t>Citibank N.A. India</t>
-  </si>
-  <si>
-    <t>IBD CVIS CBNA India</t>
-  </si>
-  <si>
-    <t>11428</t>
-  </si>
-  <si>
-    <t>CS25MANMU12D0633</t>
-  </si>
-  <si>
-    <t>ICSA-05471-2018</t>
-  </si>
-  <si>
-    <t>First International Financial Center Plot Nos C-54 &amp; C-55 G Block Bandra kurla Complex (East) Mumbai, IN</t>
-  </si>
-  <si>
-    <t>CITIBANK N.A.</t>
-  </si>
-  <si>
-    <t>AIM Fraud FSO</t>
-  </si>
-  <si>
-    <t>11273</t>
-  </si>
-  <si>
-    <t>CS25MANMU12E0438</t>
-  </si>
-  <si>
-    <t>Export</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>ICSA-00192-2016</t>
-  </si>
-  <si>
-    <t>701 East 60th St North Sioux Falls, SD 57104 United States</t>
+    <t>Citigroup Global Markets Inc.</t>
+  </si>
+  <si>
+    <t>Compliance Risk IN</t>
+  </si>
+  <si>
+    <t>18997</t>
+  </si>
+  <si>
+    <t>CS25MANMU12E0583</t>
+  </si>
+  <si>
+    <t>ICSA-07177-2016</t>
+  </si>
+  <si>
+    <t>388 Greenwich Strret New York, NY 10013 United States</t>
+  </si>
+  <si>
+    <t>Citigroup Global Markets Limited</t>
+  </si>
+  <si>
+    <t>IBD CGML CVIS UK</t>
+  </si>
+  <si>
+    <t>18947</t>
+  </si>
+  <si>
+    <t>CS25MANMU12E0631</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>ICSA-00599-2017</t>
+  </si>
+  <si>
+    <t>33 Canada Square Canary Wharf, London E14, 5LB United Kingdom</t>
+  </si>
+  <si>
+    <t>ICM FICCPM Diverse Financial Group Portfolio Mumbai</t>
+  </si>
+  <si>
+    <t>10482</t>
+  </si>
+  <si>
+    <t>CS25MANMU12E0662</t>
+  </si>
+  <si>
+    <t>Markets Ops COO IN</t>
+  </si>
+  <si>
+    <t>CS25MANMU12E0707</t>
+  </si>
+  <si>
+    <t>RMU Decision Mumbai</t>
+  </si>
+  <si>
+    <t>CS25MANMU12E0783</t>
+  </si>
+  <si>
+    <t>Citibank N.A. Singapore</t>
+  </si>
+  <si>
+    <t>Technology Chief Operating Office [L5] 11425 TECH COO 90224 MU</t>
+  </si>
+  <si>
+    <t>11425</t>
+  </si>
+  <si>
+    <t>Nov-25</t>
+  </si>
+  <si>
+    <t>CS25MANMU12E0010</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>ICSA-07981-2016</t>
+  </si>
+  <si>
+    <t>Asia Square Tower 1 8 Marina View #21-00 Singapore 018960</t>
+  </si>
+  <si>
+    <t>Banco Nacional de Mexico S.A.</t>
+  </si>
+  <si>
+    <t>PTS BTB Oct ID 20250600711 11517 Banamex MU</t>
+  </si>
+  <si>
+    <t>11517</t>
+  </si>
+  <si>
+    <t>CS25MANMU12E0036</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Service agreement</t>
+  </si>
+  <si>
+    <t>Isabel la Catolica 44, Colonia Centro, C.P. 06000, delegación Cuauhtemoc Ciudad de México Mexico</t>
   </si>
   <si>
     <t>998311</t>
   </si>
   <si>
-    <t>AIM Fraud Ops</t>
-  </si>
-  <si>
-    <t>CS25MANMU12E0439</t>
+    <t>Citibank N.A.</t>
+  </si>
+  <si>
+    <t>Foundational Services L5 17488 CISO 90140 MU</t>
+  </si>
+  <si>
+    <t>17488</t>
+  </si>
+  <si>
+    <t>CS25MANMU12E0154</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Enterprise Data Office L5 10482 SMB Tech 90060 MU</t>
+  </si>
+  <si>
+    <t>CS25MANMU12E1408</t>
+  </si>
+  <si>
+    <t>Enterprise Data Office L5 11273 SMB Tech 90060 MU</t>
+  </si>
+  <si>
+    <t>CS25MANMU12E1410</t>
+  </si>
+  <si>
+    <t>Finance L5 11273 GF 90073 MU</t>
+  </si>
+  <si>
+    <t>CS25MANMU12E1462</t>
+  </si>
+  <si>
+    <t>Finance L5 13031 GF 90074 MU</t>
+  </si>
+  <si>
+    <t>13031</t>
+  </si>
+  <si>
+    <t>CS25MANMU12E1494</t>
+  </si>
+  <si>
+    <t>Global Legal Affairs &amp; Compliance L5 10417 GF 90292 MU</t>
+  </si>
+  <si>
+    <t>10417</t>
+  </si>
+  <si>
+    <t>CS25MANMU12E1540</t>
+  </si>
+  <si>
+    <t>Global Legal Affairs &amp; Compliance L5 10482 GF 90291 MU</t>
+  </si>
+  <si>
+    <t>CS25MANMU12E1549</t>
+  </si>
+  <si>
+    <t>Global Legal Affairs &amp; Compliance L5 17521 GF 90284 MU</t>
+  </si>
+  <si>
+    <t>17521</t>
+  </si>
+  <si>
+    <t>CS25MANMU12E1579</t>
+  </si>
+  <si>
+    <t>Citibank, N.A. Egypt</t>
+  </si>
+  <si>
+    <t>Investor Cross Product L5 10129 SMB Ops 90058 MU</t>
+  </si>
+  <si>
+    <t>10129</t>
+  </si>
+  <si>
+    <t>CS25MANMU12E1641</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>ICSA-01828-2021</t>
+  </si>
+  <si>
+    <t>3-5 El-Mohandes Mohammed Hasan Helmy, Gazirat Mit Ogbah, Al Agouzah Giza Governorate, Egypt</t>
+  </si>
+  <si>
+    <t>Citibank Kazakhstan JSC</t>
+  </si>
+  <si>
+    <t>Liquidity Operations L5 14032 SMB Ops 90053 MU</t>
+  </si>
+  <si>
+    <t>14032</t>
+  </si>
+  <si>
+    <t>CS25MANMU12E1704</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>ICSA-02156-2022</t>
+  </si>
+  <si>
+    <t>2nd Floor Park Place Building A 41 Kazybek Bi Street A25T0A1, Almaty Republic of Kazakhstan</t>
+  </si>
+  <si>
+    <t>Citibank Anonim Sirketi</t>
+  </si>
+  <si>
+    <t>Onboarding Operations L5 10377 SMB Ops 90048 MU</t>
+  </si>
+  <si>
+    <t>10377</t>
+  </si>
+  <si>
+    <t>CS25MANMU12E1716</t>
+  </si>
+  <si>
+    <t>Turkiye</t>
+  </si>
+  <si>
+    <t>ICSA-04756-2022</t>
+  </si>
+  <si>
+    <t>Tekfen Tower Eski Büyükdere Caddesi No 209 Istanbul, TR-34 34394 Turkey</t>
+  </si>
+  <si>
+    <t>Citibank, N.A. Philippines</t>
+  </si>
+  <si>
+    <t>Onboarding Operations L5 11225 SMB Ops 90048 MU</t>
+  </si>
+  <si>
+    <t>11225</t>
+  </si>
+  <si>
+    <t>CS25MANMU12E1720</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>ICSA-00726-2017</t>
+  </si>
+  <si>
+    <t>16th Floor Citi Plaza, 34th Street Corner 9th Avenue Fort Bonifacio, Taguig  City, Philippines</t>
+  </si>
+  <si>
+    <t>Citibank N.A. Lebanon</t>
+  </si>
+  <si>
+    <t>Onboarding Operations L5 17334 SMB Ops 90048 MU</t>
+  </si>
+  <si>
+    <t>17334</t>
+  </si>
+  <si>
+    <t>CS25MANMU12E1736</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>ICSA-05159-2017</t>
+  </si>
+  <si>
+    <t>Berytus Parks Beirut Lebanon</t>
+  </si>
+  <si>
+    <t>Citigroup Congo S.A.</t>
+  </si>
+  <si>
+    <t>Operations L5 10105 EE Q4 Adj 90154 MU</t>
+  </si>
+  <si>
+    <t>10105</t>
+  </si>
+  <si>
+    <t>CS25MANMU12E1745</t>
+  </si>
+  <si>
+    <t>DR Congo</t>
+  </si>
+  <si>
+    <t>ICSA-00250-2017</t>
+  </si>
+  <si>
+    <t>Immeuble Citibank,N/A,CD,9999KIN1</t>
+  </si>
+  <si>
+    <t>Citigroup Global Markets Limited, Israel</t>
+  </si>
+  <si>
+    <t>Operations L5 11380 EE Q4 Adj 90156 MU</t>
+  </si>
+  <si>
+    <t>11380</t>
+  </si>
+  <si>
+    <t>CS25MANMU12E1838</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>ICSA-02075-2024</t>
+  </si>
+  <si>
+    <t>21 Ha'arba'a St. Platinum Tower 11th Floor Tel Aviv 64739 Israel</t>
+  </si>
+  <si>
+    <t>Operations L5 11425 EE Q4 Adj 90154 MU</t>
+  </si>
+  <si>
+    <t>CS25MANMU12E1843</t>
+  </si>
+  <si>
+    <t>CITIBANK EUROPE PLC</t>
+  </si>
+  <si>
+    <t>Operations L5 13547 EE Q4 Adj 90149 MU</t>
+  </si>
+  <si>
+    <t>13547</t>
+  </si>
+  <si>
+    <t>CS25MANMU12E1954</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>ICSA-01821-2016</t>
+  </si>
+  <si>
+    <t>1 North Wall Quay International Financial Services Centre Dublin 1, Dublin, IE-D Do1 T8Y1 Ireland</t>
+  </si>
+  <si>
+    <t>Citigroup Global Markets Taiwan Securiti</t>
+  </si>
+  <si>
+    <t>Operations L5 18970 EE Q4 Adj 90149 MU</t>
+  </si>
+  <si>
+    <t>18970</t>
+  </si>
+  <si>
+    <t>CS25MANMU12E2044</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>ICSA-02599-2018</t>
+  </si>
+  <si>
+    <t>14F and 15F, No 1, Songzhi Road Taipei, Taiwan 110</t>
+  </si>
+  <si>
+    <t>Citigroup Inc.</t>
+  </si>
+  <si>
+    <t>Operations L5 19108 EE Q4 Adj 90005 MU</t>
+  </si>
+  <si>
+    <t>19108</t>
+  </si>
+  <si>
+    <t>CS25MANMU12E2057</t>
+  </si>
+  <si>
+    <t>ICSA-02309-2024</t>
+  </si>
+  <si>
+    <t>399 Park Ave, 3rd Floor New York, NY 10022 United States</t>
   </si>
   <si>
     <t>Citibank N.A. United Kingdom</t>
   </si>
   <si>
-    <t>CBNA UK</t>
+    <t>Risk Management L5 10472 GF 90256 MU</t>
   </si>
   <si>
     <t>10472</t>
   </si>
   <si>
-    <t>CS25MANMU12E0474</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
+    <t>CS25MANMU12E2232</t>
   </si>
   <si>
     <t>ICSA-01823-2016</t>
   </si>
   <si>
     <t>25 Canada Square Canary Wharf, London E14 5LB United Kingdom</t>
+  </si>
+  <si>
+    <t>Risk Management L5 17661 GF 90100 MU</t>
+  </si>
+  <si>
+    <t>17661</t>
+  </si>
+  <si>
+    <t>CS25MANMU12E2256</t>
+  </si>
+  <si>
+    <t>Citibank Europe plc UK</t>
+  </si>
+  <si>
+    <t>Trade &amp; Working Capital Operations L5 10172 SMB Ops 90057 MU</t>
+  </si>
+  <si>
+    <t>10172</t>
+  </si>
+  <si>
+    <t>CS25MANMU12E2313</t>
+  </si>
+  <si>
+    <t>ICSA-00550-2022</t>
+  </si>
+  <si>
+    <t>33 Canada Square Canary Wharf, E14 5LB United Kingdom</t>
+  </si>
+  <si>
+    <t>Citibank N.A. Australia</t>
+  </si>
+  <si>
+    <t>Trade &amp; Working Capital Operations L5 11598 SMB Ops 90057 MU</t>
+  </si>
+  <si>
+    <t>11598</t>
+  </si>
+  <si>
+    <t>CS25MANMU12E2336</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>ICSA-05158-2017</t>
+  </si>
+  <si>
+    <t>Citigroup Centre-26th Floor 2 Park Street Sydney, NSW 02000, Australia</t>
+  </si>
+  <si>
+    <t>Trade &amp; Working Capital Operations L5 13547 SMB Ops 90057 MU</t>
+  </si>
+  <si>
+    <t>CS25MANMU12E2345</t>
   </si>
 </sst>
 </file>
@@ -185,9 +572,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,15 +596,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,6 +607,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="28"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -234,32 +633,21 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma 13" xfId="1" xr:uid="{5A91A39E-EAC3-4712-A4A9-F2B2D29D237D}"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -568,17 +956,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{297FDDA9-67B0-49C1-9986-3EF29DA44DA6}">
-  <dimension ref="A1:O6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF22A08-3C5D-479E-83C4-1A77A3C99125}">
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="6" max="6" width="20.453125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -640,10 +1025,10 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G2" t="s">
@@ -658,11 +1043,11 @@
       <c r="J2" t="s">
         <v>23</v>
       </c>
-      <c r="K2">
-        <v>2269693.79</v>
-      </c>
-      <c r="L2">
-        <v>25114.87</v>
+      <c r="K2" s="4">
+        <v>4027923.98</v>
+      </c>
+      <c r="L2" s="4">
+        <v>44570.239999999998</v>
       </c>
       <c r="M2" t="s">
         <v>24</v>
@@ -687,10 +1072,10 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G3" t="s">
@@ -705,11 +1090,11 @@
       <c r="J3" t="s">
         <v>23</v>
       </c>
-      <c r="K3">
-        <v>497525.32</v>
-      </c>
-      <c r="L3">
-        <v>5505.27</v>
+      <c r="K3" s="4">
+        <v>1571808.85</v>
+      </c>
+      <c r="L3" s="4">
+        <v>17392.560000000001</v>
       </c>
       <c r="M3" t="s">
         <v>31</v>
@@ -734,61 +1119,61 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4">
+        <v>90.372500000000002</v>
+      </c>
+      <c r="J4" t="s">
         <v>37</v>
       </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4">
-        <v>90.372500000000002</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4" s="4">
+        <v>11360031.609999999</v>
+      </c>
+      <c r="L4" s="4">
+        <v>125702.31</v>
+      </c>
+      <c r="M4" t="s">
         <v>38</v>
       </c>
-      <c r="K4">
-        <v>764764.07</v>
-      </c>
-      <c r="L4">
-        <v>8462.35</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>39</v>
       </c>
-      <c r="N4" t="s">
-        <v>40</v>
-      </c>
       <c r="O4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>43</v>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
         <v>22</v>
@@ -797,45 +1182,45 @@
         <v>90.372500000000002</v>
       </c>
       <c r="J5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5">
-        <v>1398616.72</v>
-      </c>
-      <c r="L5">
-        <v>15476.13</v>
+        <v>23</v>
+      </c>
+      <c r="K5" s="4">
+        <v>361551.96</v>
+      </c>
+      <c r="L5" s="4">
+        <v>4000.69</v>
       </c>
       <c r="M5" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="N5" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="O5" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>47</v>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
         <v>22</v>
@@ -844,28 +1229,1294 @@
         <v>90.372500000000002</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6">
-        <v>2988.93</v>
-      </c>
-      <c r="L6">
-        <v>33.07</v>
+        <v>23</v>
+      </c>
+      <c r="K6" s="4">
+        <v>8667065.0500000007</v>
+      </c>
+      <c r="L6" s="4">
+        <v>95903.79</v>
       </c>
       <c r="M6" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="N6" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="O6" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7">
+        <v>90.372500000000002</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="4">
+        <v>8220716.5599999996</v>
+      </c>
+      <c r="L7" s="4">
+        <v>90964.800000000003</v>
+      </c>
+      <c r="M7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8">
+        <v>90.372500000000002</v>
+      </c>
+      <c r="J8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="4">
+        <v>114852.03</v>
+      </c>
+      <c r="L8" s="4">
+        <v>1270.8699999999999</v>
+      </c>
+      <c r="M8" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" t="s">
+        <v>54</v>
+      </c>
+      <c r="O8">
+        <v>998313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9">
+        <v>90.372500000000002</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="4">
+        <v>651057.66</v>
+      </c>
+      <c r="L9" s="4">
+        <v>7204.16</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9" t="s">
+        <v>61</v>
+      </c>
+      <c r="O9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10">
+        <v>90.372500000000002</v>
+      </c>
+      <c r="J10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1898023.24</v>
+      </c>
+      <c r="L10" s="4">
+        <v>21002.23</v>
+      </c>
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11">
+        <v>90.372500000000002</v>
+      </c>
+      <c r="J11" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="4">
+        <v>64862271.289999999</v>
+      </c>
+      <c r="L11" s="4">
+        <v>717721.33</v>
+      </c>
+      <c r="M11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11">
+        <v>998314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12">
+        <v>90.372500000000002</v>
+      </c>
+      <c r="J12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="4">
+        <v>21181481.719999999</v>
+      </c>
+      <c r="L12" s="4">
+        <v>234379.73</v>
+      </c>
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12">
+        <v>998314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13">
+        <v>90.372500000000002</v>
+      </c>
+      <c r="J13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="4">
+        <v>2814596.32</v>
+      </c>
+      <c r="L13" s="4">
+        <v>31144.39</v>
+      </c>
+      <c r="M13" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13">
+        <v>998599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14">
+        <v>90.372500000000002</v>
+      </c>
+      <c r="J14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="4">
+        <v>3100338.42</v>
+      </c>
+      <c r="L14" s="4">
+        <v>34306.22</v>
+      </c>
+      <c r="M14" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14">
+        <v>998599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15">
+        <v>90.372500000000002</v>
+      </c>
+      <c r="J15" t="s">
+        <v>67</v>
+      </c>
+      <c r="K15" s="4">
+        <v>940291.1</v>
+      </c>
+      <c r="L15" s="4">
+        <v>10404.620000000001</v>
+      </c>
+      <c r="M15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15">
+        <v>998599</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16">
+        <v>90.372500000000002</v>
+      </c>
+      <c r="J16" t="s">
+        <v>67</v>
+      </c>
+      <c r="K16" s="4">
+        <v>1159293.94</v>
+      </c>
+      <c r="L16" s="4">
+        <v>12827.95</v>
+      </c>
+      <c r="M16" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16">
+        <v>998599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17">
+        <v>90.372500000000002</v>
+      </c>
+      <c r="J17" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" s="4">
+        <v>2782809.4</v>
+      </c>
+      <c r="L17" s="4">
+        <v>30792.66</v>
+      </c>
+      <c r="M17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17">
+        <v>998599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18">
+        <v>90.372500000000002</v>
+      </c>
+      <c r="J18" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18" s="4">
+        <v>2498075.12</v>
+      </c>
+      <c r="L18" s="4">
+        <v>27641.98</v>
+      </c>
+      <c r="M18" t="s">
+        <v>90</v>
+      </c>
+      <c r="N18" t="s">
+        <v>91</v>
+      </c>
+      <c r="O18">
+        <v>998599</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19">
+        <v>90.372500000000002</v>
+      </c>
+      <c r="J19" t="s">
+        <v>96</v>
+      </c>
+      <c r="K19" s="4">
+        <v>522156.97</v>
+      </c>
+      <c r="L19" s="4">
+        <v>5777.83</v>
+      </c>
+      <c r="M19" t="s">
+        <v>97</v>
+      </c>
+      <c r="N19" t="s">
+        <v>98</v>
+      </c>
+      <c r="O19">
+        <v>998599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20">
+        <v>90.372500000000002</v>
+      </c>
+      <c r="J20" t="s">
+        <v>103</v>
+      </c>
+      <c r="K20" s="4">
+        <v>864536.95</v>
+      </c>
+      <c r="L20" s="4">
+        <v>9566.3700000000008</v>
+      </c>
+      <c r="M20" t="s">
+        <v>104</v>
+      </c>
+      <c r="N20" t="s">
+        <v>105</v>
+      </c>
+      <c r="O20">
+        <v>998599</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21">
+        <v>90.372500000000002</v>
+      </c>
+      <c r="J21" t="s">
+        <v>110</v>
+      </c>
+      <c r="K21" s="4">
+        <v>1494432.64</v>
+      </c>
+      <c r="L21" s="4">
+        <v>16536.36</v>
+      </c>
+      <c r="M21" t="s">
+        <v>111</v>
+      </c>
+      <c r="N21" t="s">
+        <v>112</v>
+      </c>
+      <c r="O21">
+        <v>998599</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22">
+        <v>90.372500000000002</v>
+      </c>
+      <c r="J22" t="s">
+        <v>117</v>
+      </c>
+      <c r="K22" s="4">
+        <v>136493.79999999999</v>
+      </c>
+      <c r="L22" s="4">
+        <v>1510.35</v>
+      </c>
+      <c r="M22" t="s">
+        <v>118</v>
+      </c>
+      <c r="N22" t="s">
+        <v>119</v>
+      </c>
+      <c r="O22">
+        <v>998599</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23">
+        <v>90.372500000000002</v>
+      </c>
+      <c r="J23" t="s">
+        <v>124</v>
+      </c>
+      <c r="K23" s="4">
+        <v>90.02</v>
+      </c>
+      <c r="L23" s="4">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
+        <v>125</v>
+      </c>
+      <c r="N23" t="s">
+        <v>126</v>
+      </c>
+      <c r="O23">
+        <v>998599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24">
+        <v>90.372500000000002</v>
+      </c>
+      <c r="J24" t="s">
+        <v>131</v>
+      </c>
+      <c r="K24" s="4">
+        <v>344.58</v>
+      </c>
+      <c r="L24" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="M24" t="s">
+        <v>132</v>
+      </c>
+      <c r="N24" t="s">
+        <v>133</v>
+      </c>
+      <c r="O24">
+        <v>998599</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25">
+        <v>90.372500000000002</v>
+      </c>
+      <c r="J25" t="s">
+        <v>52</v>
+      </c>
+      <c r="K25" s="4">
+        <v>107396.22</v>
+      </c>
+      <c r="L25" s="4">
+        <v>1188.3699999999999</v>
+      </c>
+      <c r="M25" t="s">
+        <v>53</v>
+      </c>
+      <c r="N25" t="s">
+        <v>54</v>
+      </c>
+      <c r="O25">
+        <v>998599</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26">
+        <v>90.372500000000002</v>
+      </c>
+      <c r="J26" t="s">
+        <v>140</v>
+      </c>
+      <c r="K26" s="4">
+        <v>771635.73</v>
+      </c>
+      <c r="L26" s="4">
+        <v>8538.39</v>
+      </c>
+      <c r="M26" t="s">
+        <v>141</v>
+      </c>
+      <c r="N26" t="s">
+        <v>142</v>
+      </c>
+      <c r="O26">
+        <v>998599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27">
+        <v>90.372500000000002</v>
+      </c>
+      <c r="J27" t="s">
+        <v>147</v>
+      </c>
+      <c r="K27" s="4">
+        <v>3667.21</v>
+      </c>
+      <c r="L27" s="4">
+        <v>40.58</v>
+      </c>
+      <c r="M27" t="s">
+        <v>148</v>
+      </c>
+      <c r="N27" t="s">
+        <v>149</v>
+      </c>
+      <c r="O27">
+        <v>998599</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28">
+        <v>90.372500000000002</v>
+      </c>
+      <c r="J28" t="s">
+        <v>67</v>
+      </c>
+      <c r="K28" s="4">
+        <v>55525.48</v>
+      </c>
+      <c r="L28" s="4">
+        <v>614.41</v>
+      </c>
+      <c r="M28" t="s">
+        <v>154</v>
+      </c>
+      <c r="N28" t="s">
+        <v>155</v>
+      </c>
+      <c r="O28">
+        <v>998599</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" t="s">
+        <v>158</v>
+      </c>
+      <c r="D29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29">
+        <v>90.372500000000002</v>
+      </c>
+      <c r="J29" t="s">
+        <v>37</v>
+      </c>
+      <c r="K29" s="4">
+        <v>1780783.21</v>
+      </c>
+      <c r="L29" s="4">
+        <v>19704.919999999998</v>
+      </c>
+      <c r="M29" t="s">
+        <v>160</v>
+      </c>
+      <c r="N29" t="s">
+        <v>161</v>
+      </c>
+      <c r="O29">
+        <v>998599</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" t="s">
+        <v>163</v>
+      </c>
+      <c r="D30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30">
+        <v>90.372500000000002</v>
+      </c>
+      <c r="J30" t="s">
+        <v>67</v>
+      </c>
+      <c r="K30" s="4">
+        <v>3412724.68</v>
+      </c>
+      <c r="L30" s="4">
+        <v>37762.870000000003</v>
+      </c>
+      <c r="M30" t="s">
+        <v>24</v>
+      </c>
+      <c r="N30" t="s">
+        <v>25</v>
+      </c>
+      <c r="O30">
+        <v>998599</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B31" t="s">
+        <v>166</v>
+      </c>
+      <c r="C31" t="s">
+        <v>167</v>
+      </c>
+      <c r="D31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31">
+        <v>90.372500000000002</v>
+      </c>
+      <c r="J31" t="s">
+        <v>37</v>
+      </c>
+      <c r="K31" s="4">
+        <v>7316635.8700000001</v>
+      </c>
+      <c r="L31" s="4">
+        <v>80960.87</v>
+      </c>
+      <c r="M31" t="s">
+        <v>169</v>
+      </c>
+      <c r="N31" t="s">
+        <v>170</v>
+      </c>
+      <c r="O31">
+        <v>998313</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>171</v>
+      </c>
+      <c r="B32" t="s">
+        <v>172</v>
+      </c>
+      <c r="C32" t="s">
+        <v>173</v>
+      </c>
+      <c r="D32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32">
+        <v>90.372500000000002</v>
+      </c>
+      <c r="J32" t="s">
+        <v>175</v>
+      </c>
+      <c r="K32" s="4">
+        <v>14511760.300000001</v>
+      </c>
+      <c r="L32" s="4">
+        <v>160577.17000000001</v>
+      </c>
+      <c r="M32" t="s">
+        <v>176</v>
+      </c>
+      <c r="N32" t="s">
+        <v>177</v>
+      </c>
+      <c r="O32">
+        <v>998313</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" t="s">
+        <v>178</v>
+      </c>
+      <c r="C33" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33">
+        <v>90.372500000000002</v>
+      </c>
+      <c r="J33" t="s">
+        <v>140</v>
+      </c>
+      <c r="K33" s="4">
+        <v>61071319.270000003</v>
+      </c>
+      <c r="L33" s="4">
+        <v>675773.26</v>
+      </c>
+      <c r="M33" t="s">
+        <v>141</v>
+      </c>
+      <c r="N33" t="s">
+        <v>142</v>
+      </c>
+      <c r="O33">
+        <v>998313</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F6">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>